--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>973080.7165486345</v>
+        <v>969606.746520335</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564203</v>
+        <v>189902.9539564201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>335.2571945388548</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>191.6017505862091</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>134.6751203255737</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>132.562136713396</v>
+        <v>307.989590223367</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>46.45345203807926</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>344.7122266599193</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="10">
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>38.39834678541102</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>118.9621335895201</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.3734398702023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.92900240760887</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>83.59830597394848</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>184.4424805593811</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1610,16 +1610,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48.91401559658151</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1938,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.1755093262908</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>20.92041677519556</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>280.1033070984082</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43.99240337009266</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>284.56151600587</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>190.2713935802969</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.3780331825938</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.697965932028</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>296.2605069911385</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>26.94389492651026</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>290.5286403308934</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3193,22 +3193,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>107.823220172264</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>275.480581273108</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>238.4631285907687</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>189.596843649344</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,19 +3503,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>4.55385834063818</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228949</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U43" t="n">
-        <v>223.82438355203</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3983,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>90.97242552187832</v>
+        <v>371.7293199355301</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4138,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>162.3364906735232</v>
+        <v>86.11283245544976</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1273.280804219765</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C2" t="n">
-        <v>904.3182872793534</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="D2" t="n">
-        <v>546.052588672603</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4419,10 +4419,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600564</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
         <v>562.6765899837193</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.1098286224644</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C5" t="n">
-        <v>546.1098286224644</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D5" t="n">
-        <v>187.8441300157139</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E5" t="n">
-        <v>187.8441300157139</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F5" t="n">
-        <v>187.8441300157139</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G5" t="n">
-        <v>187.8441300157139</v>
+        <v>365.0435780055836</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982761</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.1098286224644</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1177.911859172214</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.911859172214</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.911859172214</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1236065739693</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F8" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2650.22641219188</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2650.22641219188</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2650.22641219188</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2396.464626829972</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2065.401739486401</v>
       </c>
       <c r="W8" t="n">
-        <v>1568.051191148025</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.051191148025</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="Y8" t="n">
-        <v>1177.911859172214</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>138.3857151273827</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>607.965212903889</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.3857151273827</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5057,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2667.927876465082</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2667.927876465082</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>2336.864989121511</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018223</v>
+        <v>1984.096333851397</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018223</v>
+        <v>1610.630575590317</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018223</v>
+        <v>1220.491243614505</v>
       </c>
     </row>
     <row r="12">
@@ -5094,73 +5094,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>138.3857151273831</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5206,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406187</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587814</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.3857151273831</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253592</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036446</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036446</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
@@ -5303,25 +5303,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2317.164380266785</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1943.698622005704</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0123447940986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>430.0992512117055</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>430.0992512117055</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>261.0994509500379</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>103.351078382568</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064343</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5516,16 +5516,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5549,16 +5549,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2317.164380266784</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1943.698622005704</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5604,31 +5604,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C19" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D19" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E19" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F19" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G19" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5692,31 +5692,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U19" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V19" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W19" t="n">
-        <v>380.6911546495019</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X19" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y19" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C20" t="n">
-        <v>1491.915471247702</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D20" t="n">
-        <v>1133.649772640952</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
-        <v>747.8615200427075</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>336.8756152531</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,19 +5750,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5792,10 +5792,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5850,22 +5850,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2469.840903686824</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>2277.64757683804</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1865.381229508783</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1496.418712568371</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1138.15301396162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>752.3647613633761</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>341.3788565737686</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -5999,40 +5999,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>2251.981069572904</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6154,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>2054.523217580367</v>
       </c>
       <c r="D26" t="n">
-        <v>1122.952954307291</v>
+        <v>1696.257518973616</v>
       </c>
       <c r="E26" t="n">
-        <v>737.1647017090463</v>
+        <v>1310.469266375372</v>
       </c>
       <c r="F26" t="n">
-        <v>326.1787969194388</v>
+        <v>899.4833615857644</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>481.5195534839513</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>154.3248335199542</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6254,22 +6254,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2319.969675542399</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C28" t="n">
-        <v>2319.969675542399</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D28" t="n">
-        <v>2169.853036130063</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>2169.853036130063</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
         <v>2022.963088632153</v>
@@ -6409,25 +6409,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>2547.959226440416</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>2547.959226440416</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>2547.959226440416</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>2547.959226440416</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W28" t="n">
-        <v>2547.959226440416</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X28" t="n">
-        <v>2319.969675542399</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y28" t="n">
-        <v>2319.969675542399</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>764.1819239747583</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>764.1819239747583</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>464.928886609972</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,19 +6461,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6491,22 +6491,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1540.921096014692</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1540.921096014692</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.78176403888</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>684.3735766921516</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W31" t="n">
-        <v>684.3735766921516</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X31" t="n">
-        <v>456.3840257941342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1626.94664591678</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C32" t="n">
-        <v>1626.94664591678</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.680947310029</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117851</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036444</v>
@@ -6704,7 +6704,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6737,13 +6737,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X32" t="n">
-        <v>2403.685817956713</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y32" t="n">
-        <v>2013.546485980901</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036378</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036378</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614623</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571342</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014716</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E34" t="n">
-        <v>663.910013048764</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="F34" t="n">
-        <v>517.0200655508536</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="G34" t="n">
-        <v>348.0202652891861</v>
+        <v>344.8407607629293</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J34" t="n">
         <v>53.94298182036444</v>
@@ -6883,25 +6883,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1637.643464250441</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2401.248554487333</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2027.782796226253</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1637.643464250441</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L37" t="n">
         <v>2206.839139259579</v>
@@ -7123,22 +7123,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>2505.637127736057</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>2505.637127736057</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V37" t="n">
-        <v>2250.95263953017</v>
+        <v>2312.380258669113</v>
       </c>
       <c r="W37" t="n">
-        <v>2250.95263953017</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.68094731003</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7178,7 +7178,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2418.885877611043</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2418.885877611043</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W38" t="n">
-        <v>2418.885877611043</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X38" t="n">
-        <v>2045.420119349963</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1655.280787374151</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7227,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7394,28 +7394,28 @@
         <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785527</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889451</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7451,10 +7451,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757142</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.54400078133</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7509,22 +7509,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7597,22 +7597,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U43" t="n">
-        <v>274.7355609638946</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V43" t="n">
-        <v>274.7355609638946</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W43" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1258.850788876759</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C44" t="n">
-        <v>889.8882719363473</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D44" t="n">
-        <v>531.6225733295969</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E44" t="n">
-        <v>145.8343207313526</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="F44" t="n">
-        <v>145.8343207313526</v>
+        <v>429.427143371405</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2035.589960916692</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>2035.589960916692</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y44" t="n">
-        <v>1645.450628940881</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7722,7 +7722,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7734,16 +7734,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7752,16 +7752,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7837,19 +7837,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>564.1527310008552</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W46" t="n">
-        <v>274.7355609638946</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,13 +10911,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>46.67317553340695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>222.1824194345859</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22711,10 +22711,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74592769735753</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -22784,22 +22784,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>191.3606360509612</v>
+        <v>15.93318254099017</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,7 +22948,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,19 +23027,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.024950536732405</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>4.528742057493673</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23194,10 +23194,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.5672750069272</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,16 +23221,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>27.70305839063772</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3604017932783</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>187.5193179500489</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,13 +23431,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>51.36731581838974</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>40.59262489870318</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23552,10 +23552,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8083635436241</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>86.05160619575672</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>45.199959188537</v>
@@ -23701,13 +23701,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23789,13 +23789,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>300.8083635436241</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23932,16 +23932,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>43.97002962372812</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7892386138416</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>133.6808629223868</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>123.3173988889583</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>129.222654014925</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>96.01048066168084</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>52.55328306226745</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24649,7 +24649,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>64.44757301799095</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24680,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>58.42253462954449</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24880,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>103.347338541018</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24895,16 +24895,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,13 +24926,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>296.9788778378469</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>79.2024603475756</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25081,22 +25081,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>48.34766866953113</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>89.79231049789956</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25214,7 +25214,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>110.7778401266443</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25363,19 +25363,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>35.43826180874029</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,19 +25391,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,22 +25436,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>246.6703091676511</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25567,10 +25567,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,25 +25591,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049790008</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25804,10 +25804,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25837,22 +25837,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U43" t="n">
-        <v>62.45749068994775</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,13 +25871,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>322.8117444989167</v>
+        <v>42.05485008526489</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,7 +25919,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25992,7 +25992,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,10 +26041,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,19 +26077,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>89.80115265030477</v>
+        <v>166.0248108683782</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="D2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="E2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="F2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="D2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="E2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="F2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="G2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
@@ -26335,22 +26335,22 @@
         <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="M2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="K2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149698</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82672692972119e-10</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26488,7 +26488,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-415945.6908231803</v>
+        <v>-416360.9053326475</v>
       </c>
       <c r="C6" t="n">
-        <v>174022.1883913643</v>
+        <v>173606.9738818969</v>
       </c>
       <c r="D6" t="n">
-        <v>174022.1883913645</v>
+        <v>173606.9738818971</v>
       </c>
       <c r="E6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="F6" t="n">
-        <v>207649.7883913645</v>
+        <v>207234.573881897</v>
       </c>
       <c r="G6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.573881897</v>
       </c>
       <c r="H6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.573881897</v>
       </c>
       <c r="I6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.573881897</v>
       </c>
       <c r="J6" t="n">
-        <v>31226.56919877131</v>
+        <v>30811.35468930419</v>
       </c>
       <c r="K6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="L6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="M6" t="n">
-        <v>207649.7883913642</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="N6" t="n">
-        <v>207649.7883913641</v>
+        <v>207234.573881897</v>
       </c>
       <c r="O6" t="n">
-        <v>207649.7883913643</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="P6" t="n">
-        <v>207649.7883913644</v>
+        <v>207234.5738818971</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="E3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="E3" t="n">
-        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26808,7 +26808,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,10 +31753,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31765,34 +31765,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31929,28 +31929,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35580,10 +35580,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,7 +36446,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,19 +36917,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,7 +37397,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,13 +37631,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37792,10 +37792,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38026,13 +38026,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,13 +38102,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969606.746520335</v>
+        <v>998451.057275063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564201</v>
+        <v>189902.9539564202</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>159.2985086606752</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>191.6017505862091</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>307.989590223367</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>129.6553603084662</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>46.45345203807926</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>16.72973301381649</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>118.9621335895201</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>315.8263535402513</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.92900240760887</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>184.4424805593811</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.3033795584749</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>29.41204342723542</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>117.1083480947401</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>20.92041677519556</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>284.5615160058697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.99240337009266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>234.4871813790489</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>64.60218603196181</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.3780331825938</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>269.5134569480837</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>26.94389492651026</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>102.5637353995019</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3199,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.823220172264</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>275.480581273108</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>322.0832716222507</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>155.2114886365809</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>312.2258396319373</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>371.7293199355301</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
@@ -4138,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>86.11283245544976</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.103316533935</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="C2" t="n">
-        <v>728.1407995935235</v>
+        <v>1756.783251779759</v>
       </c>
       <c r="D2" t="n">
-        <v>728.1407995935235</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>728.1407995935235</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>728.1407995935235</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>2125.745768720171</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2307.009759042411</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1938.047242101999</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1579.781543495249</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1193.993290897004</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>783.0073861073968</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>365.0435780055836</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2334.977903450294</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2081.216118088385</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E7" t="n">
-        <v>663.910013048764</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>952.5674858910851</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C8" t="n">
-        <v>952.5674858910851</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D8" t="n">
-        <v>952.5674858910851</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E8" t="n">
-        <v>952.5674858910851</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2650.22641219188</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2650.22641219188</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2650.22641219188</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2396.464626829972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2065.401739486401</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1712.633084216287</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1339.167325955207</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1339.167325955207</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>607.965212903889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>393.6767897220517</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>393.6767897220517</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>833.8914035503838</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C11" t="n">
-        <v>464.928886609972</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D11" t="n">
-        <v>464.928886609972</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,10 +5041,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2667.927876465082</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2667.927876465082</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2336.864989121511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1984.096333851397</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.630575590317</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y11" t="n">
-        <v>1220.491243614505</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5136,7 +5138,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
         <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406185</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="S13" t="n">
-        <v>579.9823256406185</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="T13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="U13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y13" t="n">
-        <v>393.6767897220517</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2338.783654519953</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1595.875667274026</v>
       </c>
     </row>
     <row r="15">
@@ -5352,13 +5354,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
         <v>713.8062203571349</v>
@@ -5376,7 +5378,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5461,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978289</v>
+        <v>1481.84465138245</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.447402037877</v>
+        <v>1481.84465138245</v>
       </c>
       <c r="D17" t="n">
-        <v>1193.181703431127</v>
+        <v>1481.84465138245</v>
       </c>
       <c r="E17" t="n">
-        <v>807.3934508328825</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>396.407546043275</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5525,7 +5527,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5543,22 +5545,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.009759042411</v>
+        <v>1481.84465138245</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1577.945354755378</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5792,10 +5794,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>2354.684526795312</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1964.5451948195</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614627</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N21" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P21" t="n">
         <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.37975290126613</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C22" t="n">
-        <v>98.37975290126613</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D22" t="n">
-        <v>98.37975290126613</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5938,22 +5940,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>500.820796875036</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V22" t="n">
-        <v>500.820796875036</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W22" t="n">
-        <v>500.820796875036</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X22" t="n">
-        <v>500.820796875036</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y22" t="n">
-        <v>280.0282177315058</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,10 +5989,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224076</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2576.865668183098</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="24">
@@ -6069,13 +6071,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6178,16 +6180,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W25" t="n">
-        <v>502.7251118619119</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y25" t="n">
         <v>53.94298182036445</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2423.485734520778</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C26" t="n">
-        <v>2054.523217580367</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D26" t="n">
-        <v>1696.257518973616</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E26" t="n">
-        <v>1310.469266375372</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>899.4833615857644</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>481.5195534839513</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>154.3248335199542</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6230,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6251,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="U26" t="n">
-        <v>2423.485734520778</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="V26" t="n">
-        <v>2423.485734520778</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="W26" t="n">
-        <v>2423.485734520778</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="X26" t="n">
-        <v>2423.485734520778</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y26" t="n">
-        <v>2423.485734520778</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6305,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6467,13 +6469,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W31" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1194.175505447094</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C32" t="n">
-        <v>825.2129885066827</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D32" t="n">
-        <v>466.9472898999322</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>81.15903730168793</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>81.15903730168793</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>81.15903730168793</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6704,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2538.520668821946</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2538.520668821946</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2538.520668821946</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748108</v>
+        <v>2185.752013551832</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487028</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y32" t="n">
-        <v>1580.775345511216</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614623</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571342</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014716</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.060406649889</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>344.8407607629293</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>235.9284171545818</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323009</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>513.8405610245969</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.680947310029</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.680947310029</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
@@ -6956,31 +6958,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>2567.064746875</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>2312.380258669113</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632152</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632152</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253591</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2317.164380266784</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1943.698622005704</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y38" t="n">
-        <v>1553.559290029893</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7250,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7269,7 +7271,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7336,34 +7338,34 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>2539.444886308983</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>2312.136698977585</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U40" t="n">
-        <v>2022.963088632153</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V40" t="n">
         <v>2022.963088632153</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424003</v>
@@ -7485,19 +7487,19 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7527,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7573,28 +7575,28 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
         <v>571.3497027553424</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1567.641263708175</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C44" t="n">
-        <v>1198.678746767763</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D44" t="n">
-        <v>840.4130481610125</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E44" t="n">
-        <v>840.4130481610125</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F44" t="n">
-        <v>429.427143371405</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7649,16 +7651,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y44" t="n">
-        <v>1954.241103772296</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="45">
@@ -7707,16 +7709,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7725,16 +7727,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
         <v>53.94298182036445</v>
@@ -7837,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>351.9727148150933</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599053</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11306,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>195.3845329600078</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>222.1824194345859</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22799,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15.93318254099017</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>86.79296004919155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,19 +22950,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>16.63754732114117</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -22999,10 +23001,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.024950536732405</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23075,7 +23077,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>353.0013676646525</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23194,13 +23196,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>27.70305839063772</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>66.90748812322931</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>187.5193179500489</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.99007165458437</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>40.59262489870318</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,13 +23554,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>27.44887891165996</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>196.2976119618017</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>264.8220219775217</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>204.7892386138416</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.3173988889583</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24178,22 +24180,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>151.846134325696</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24382,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24418,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>52.55328306226745</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>105.3448503555367</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24655,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24892,16 +24894,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>296.9788778378469</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>113.8845849581559</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>48.34766866953113</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>89.79231049789956</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>27.15769709516229</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25366,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="38">
@@ -25400,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25448,13 +25450,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>300.8083635436241</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>56.0183762878722</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>69.82361682150338</v>
+        <v>69.82361682150315</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>42.45720198874562</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>42.05485008526489</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26026,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>166.0248108683782</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
   </sheetData>
@@ -26314,40 +26316,40 @@
         <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="D2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="E2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="F2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="G2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="H2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="D2" t="n">
+      <c r="I2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="E2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="I2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="K2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149696</v>
-      </c>
       <c r="N2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149696</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26500,10 +26502,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326475</v>
+        <v>-416360.9053326474</v>
       </c>
       <c r="C6" t="n">
-        <v>173606.9738818969</v>
+        <v>173606.9738818971</v>
       </c>
       <c r="D6" t="n">
-        <v>173606.9738818971</v>
+        <v>173606.973881897</v>
       </c>
       <c r="E6" t="n">
+        <v>207234.5738818971</v>
+      </c>
+      <c r="F6" t="n">
+        <v>207234.5738818971</v>
+      </c>
+      <c r="G6" t="n">
+        <v>207234.5738818971</v>
+      </c>
+      <c r="H6" t="n">
         <v>207234.5738818969</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
+        <v>207234.5738818971</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30811.35468930406</v>
+      </c>
+      <c r="K6" t="n">
         <v>207234.573881897</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
         <v>207234.573881897</v>
       </c>
-      <c r="H6" t="n">
-        <v>207234.573881897</v>
-      </c>
-      <c r="I6" t="n">
-        <v>207234.573881897</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30811.35468930419</v>
-      </c>
-      <c r="K6" t="n">
-        <v>207234.5738818969</v>
-      </c>
-      <c r="L6" t="n">
-        <v>207234.5738818969</v>
-      </c>
       <c r="M6" t="n">
-        <v>207234.5738818969</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="N6" t="n">
-        <v>207234.573881897</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="O6" t="n">
         <v>207234.5738818969</v>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26771,10 +26773,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26793,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26817,13 +26819,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35738,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,10 +35974,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36212,7 +36214,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,10 +36448,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37160,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,13 +37320,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38026,7 +38028,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,10 +38104,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>998451.057275063</v>
+        <v>947131.3959306958</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564202</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8730793.489920923</v>
+        <v>8730793.489920922</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>159.2985086606752</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>116.1898439687553</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -788,7 +788,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.90301252244922</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>353.0598453382183</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,16 +946,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>129.6553603084662</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>205.1332020905459</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>127.8819313525581</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>16.72973301381649</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>315.8263535402513</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>128.855601711091</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,28 +1530,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>48.97699675700473</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>210.7317760590121</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>300.3033795584749</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>173.8990189732829</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>29.41204342723542</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>117.1083480947401</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>42.61789643688657</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>11.47779579068939</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>234.4871813790489</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>64.60218603196181</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>222.0968321060117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>69.0708624534348</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>88.95876984552223</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>269.5134569480837</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>272.3533536978979</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>6.305787840853322</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>102.5637353995019</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>57.73991206543113</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.1271626621467</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.999661849416186</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>322.0832716222507</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>157.2767067732817</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>284.5615160058697</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>269.5134569480837</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>128.7835007017904</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>312.2258396319373</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>332.1317943015987</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>43.99240337009316</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2125.745768720171</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C2" t="n">
-        <v>1756.783251779759</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.745768720171</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>2125.745768720171</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>2125.745768720171</v>
+        <v>1522.488311387139</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4409,7 +4409,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>110.4106712369798</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>110.4106712369798</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2334.977903450294</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2081.216118088385</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1750.153230744814</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1750.153230744814</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X5" t="n">
-        <v>1750.153230744814</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1219.679656148628</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C8" t="n">
-        <v>850.7171392082162</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="D8" t="n">
-        <v>850.7171392082162</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>464.928886609972</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.418828188561</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1606.27949621275</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2323.103882821189</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>1524.781542768992</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>1166.515844162242</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y11" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.744059709404</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5123,22 +5123,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>562.6765899837193</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D13" t="n">
-        <v>562.6765899837193</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E13" t="n">
-        <v>562.6765899837193</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1595.875667274026</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="C14" t="n">
-        <v>1595.875667274026</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.875667274026</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548715</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>2338.783654519953</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>1986.014999249838</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X14" t="n">
-        <v>1986.014999249838</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y14" t="n">
-        <v>1595.875667274026</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>222.942782082032</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C16" t="n">
-        <v>222.942782082032</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D16" t="n">
-        <v>222.942782082032</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E16" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F16" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="V16" t="n">
-        <v>473.4444960005474</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="W16" t="n">
-        <v>473.4444960005474</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="X16" t="n">
-        <v>443.7353612255621</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.942782082032</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1481.84465138245</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C17" t="n">
-        <v>1481.84465138245</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D17" t="n">
-        <v>1481.84465138245</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628376</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.752638628376</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>1871.983983358262</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X17" t="n">
-        <v>1871.983983358262</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y17" t="n">
-        <v>1481.84465138245</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>841.7662216508365</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>841.7662216508365</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>483.500523044086</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090463</v>
+        <v>483.500523044086</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194388</v>
+        <v>483.500523044086</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>65.53671494227291</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>65.53671494227291</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1228.366061714958</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614627</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>491.2732454397182</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>491.2732454397182</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2323.103882821189</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>1954.141365880777</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2576.865668183098</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2323.103882821189</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2323.103882821189</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="W23" t="n">
-        <v>2323.103882821189</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.103882821189</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y23" t="n">
-        <v>2323.103882821189</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6180,16 +6180,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
         <v>53.94298182036445</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1422.14692331494</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C26" t="n">
-        <v>1422.14692331494</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.14692331494</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2572.351853615953</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>2572.351853615953</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X26" t="n">
-        <v>2198.886095354873</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y26" t="n">
-        <v>1808.746763379062</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.952954307291</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551153</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1422.14692331494</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C32" t="n">
-        <v>1422.14692331494</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.14692331494</v>
+        <v>857.0866218757449</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>471.2983692775006</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>60.31246448789307</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>60.31246448789307</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>60.31246448789307</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224076</v>
@@ -6712,40 +6712,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2538.520668821946</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2538.520668821946</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2538.520668821946</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>2185.752013551832</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X32" t="n">
-        <v>1812.286255290752</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y32" t="n">
-        <v>1422.14692331494</v>
+        <v>1970.914677487029</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2539.444886308983</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.136698977585</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>259.1560728187103</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1568.353113282533</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C35" t="n">
-        <v>1568.353113282533</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D35" t="n">
-        <v>1210.087414675782</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F35" t="n">
         <v>799.1015098861748</v>
@@ -6937,52 +6937,52 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W35" t="n">
-        <v>1568.353113282533</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X35" t="n">
-        <v>1568.353113282533</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y35" t="n">
-        <v>1568.353113282533</v>
+        <v>1528.349585887293</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018223</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>2179.742370083245</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.945354755379</v>
+        <v>1679.795701438247</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082163</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7204,22 +7204,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X38" t="n">
-        <v>2354.684526795312</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y38" t="n">
-        <v>1964.5451948195</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="39">
@@ -7268,10 +7268,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>2277.64757683804</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632153</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090463</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,10 +7429,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
@@ -7450,13 +7450,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2369.884586449642</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>1996.418828188562</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7511,28 +7511,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7578,43 +7578,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T43" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U43" t="n">
-        <v>571.3497027553424</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V43" t="n">
-        <v>571.3497027553424</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1309.714918859356</v>
+        <v>1920.40991897829</v>
       </c>
       <c r="C44" t="n">
-        <v>940.7524019189439</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D44" t="n">
-        <v>625.3727659270879</v>
+        <v>1193.181703431128</v>
       </c>
       <c r="E44" t="n">
-        <v>625.3727659270879</v>
+        <v>807.3934508328834</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7663,37 +7663,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y44" t="n">
-        <v>1309.714918859356</v>
+        <v>2307.009759042412</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599053</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>195.3845329600078</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>270.0480946872983</v>
       </c>
     </row>
     <row r="3">
@@ -22707,13 +22707,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>90.53095012411995</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22752,16 +22752,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,10 +22770,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>28.87052473404344</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>86.79296004919155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>16.63754732114117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,10 +22998,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>81.14867215143187</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>226.8011102681248</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23080,13 +23080,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>353.0013676646525</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23187,13 +23187,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293328</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23229,19 +23229,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.90748812322931</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>253.0747683611708</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>118.3328055020462</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>11.99007165458437</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>171.1985940132497</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23548,13 +23548,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>27.44887891165996</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>51.13608648480133</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>196.2976119618017</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>264.8220219775217</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>306.6230722805265</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>140.4535204541719</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>51.79469286292885</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>151.846134325696</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>105.6554263641232</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>105.3448503555367</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24502,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>297.2791688105314</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,10 +24657,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>85.16958467259929</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>113.8845849581557</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>50.80735538553375</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>145.6255284040079</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>113.8845849581559</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>88.69405058113804</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>56.0183762878722</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>380.7341798140644</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>27.15769709516229</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>225.4571348901989</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>85.16958467259929</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>79.72751176932934</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>69.82361682150315</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>42.45720198874562</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>74.74425144011269</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>242.2894708718846</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="C2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="C2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149699</v>
@@ -26331,25 +26331,25 @@
         <v>274694.9795149698</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149699</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149696</v>
@@ -26499,7 +26499,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326474</v>
+        <v>-422429.3190784666</v>
       </c>
       <c r="C6" t="n">
-        <v>173606.9738818971</v>
+        <v>167538.5601360778</v>
       </c>
       <c r="D6" t="n">
-        <v>173606.973881897</v>
+        <v>167538.5601360778</v>
       </c>
       <c r="E6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="F6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="G6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="H6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="I6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="J6" t="n">
-        <v>30811.35468930406</v>
+        <v>24742.94094348491</v>
       </c>
       <c r="K6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="L6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360777</v>
       </c>
       <c r="M6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="N6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="O6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360777</v>
       </c>
       <c r="P6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360778</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26764,22 +26764,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26819,7 +26819,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
     </row>
   </sheetData>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,22 +33356,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,22 +33593,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -34125,10 +34125,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34137,34 +34137,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34301,28 +34301,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,10 +36448,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,16 +36682,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624588</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M45" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947131.3959306958</v>
+        <v>992826.6649842925</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564203</v>
+        <v>189902.9539564207</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>46.57292472581302</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>116.1898439687553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325212</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>169.0167291702121</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>353.0598453382183</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>89.5609944144893</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773027</v>
       </c>
     </row>
     <row r="7">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>205.1332020905459</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.2114886365806</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>127.8819313525581</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>105.3148082618163</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>68.19029374363589</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>67.0091309468324</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>69.09705964402022</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>128.855601711091</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>48.97699675700473</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>88.83490402252897</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>210.7317760590121</v>
+        <v>267.6048690474385</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>173.8990189732829</v>
+        <v>37.60685400616008</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>42.61789643688657</v>
+        <v>65.13835619566984</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>11.47779579068939</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>166.0588731052221</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2377,16 +2377,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>222.0968321060117</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>190.2545767797912</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>325.2399460717379</v>
       </c>
       <c r="Y26" t="n">
-        <v>88.95876984552223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>198.5424032384321</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>267.3801085983702</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>272.3533536978979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.0246247964035</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>25.31590541686268</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>209.5972717395339</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.305787840853322</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>57.73991206543113</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>121.2699779972377</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.999661849416186</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>302.7279097246867</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017902</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>157.2767067732817</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>95.09774413911198</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3720,7 +3720,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>94.63926978364051</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>281.5949772365267</v>
       </c>
       <c r="W41" t="n">
-        <v>269.5134569480837</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017904</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3979,16 +3979,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>332.1317943015987</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>4.55385834063818</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>43.99240337009316</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1135.888471323017</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>766.9259543826058</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>766.9259543826058</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>381.1377017843616</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>625.372765927088</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628375</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="Y2" t="n">
-        <v>1522.488311387139</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="3">
@@ -4406,34 +4406,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430046</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C4" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D4" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245966</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791645</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791645</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1392.984777118936</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1392.984777118936</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1392.984777118936</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>625.372765927088</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2551.654750624988</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="X5" t="n">
-        <v>2169.72394915887</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y5" t="n">
-        <v>1779.584617183058</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430046</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207636</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694733</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714559</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.515311311824</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.515311311824</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>160.3215760242193</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>160.3215760242193</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7118141694736</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="C10" t="n">
-        <v>438.7118141694736</v>
+        <v>121.6289726757507</v>
       </c>
       <c r="D10" t="n">
-        <v>438.7118141694736</v>
+        <v>121.6289726757507</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>121.6289726757507</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>121.6289726757507</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>290.5651556036576</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1893.744059709404</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="C11" t="n">
-        <v>1524.781542768992</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D11" t="n">
-        <v>1166.515844162242</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V11" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W11" t="n">
-        <v>2267.209817970484</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X11" t="n">
-        <v>1893.744059709404</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y11" t="n">
-        <v>1893.744059709404</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C13" t="n">
-        <v>559.1928012785276</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D13" t="n">
-        <v>409.0761618661918</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E13" t="n">
-        <v>261.1630682837987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1095.753074569373</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C14" t="n">
-        <v>1095.753074569373</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="D14" t="n">
-        <v>1095.753074569373</v>
+        <v>1480.395363208549</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5317,13 +5317,13 @@
         <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>1485.892406545185</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X14" t="n">
-        <v>1485.892406545185</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y14" t="n">
-        <v>1095.753074569373</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
+        <v>53.94298182036423</v>
+      </c>
+      <c r="J15" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J15" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K15" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5378,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>338.1849863041093</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C16" t="n">
-        <v>338.1849863041093</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D16" t="n">
-        <v>338.1849863041093</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E16" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F16" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245972</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>338.1849863041093</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="U16" t="n">
-        <v>338.1849863041093</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="V16" t="n">
-        <v>338.1849863041093</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="W16" t="n">
-        <v>338.1849863041093</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="X16" t="n">
-        <v>338.1849863041093</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="Y16" t="n">
-        <v>338.1849863041093</v>
+        <v>541.9956044222747</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1422.14692331494</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C17" t="n">
-        <v>1422.14692331494</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.14692331494</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>1795.61268157602</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="X17" t="n">
-        <v>1422.14692331494</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y17" t="n">
-        <v>1422.14692331494</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5679,43 +5679,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610024</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V19" t="n">
-        <v>184.2708856551155</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
         <v>53.94298182036445</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>841.7662216508365</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C20" t="n">
-        <v>841.7662216508365</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D20" t="n">
-        <v>483.500523044086</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>483.500523044086</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>483.500523044086</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>65.53671494227291</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>65.53671494227291</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2302.336936304455</v>
+        <v>2310.778188530465</v>
       </c>
       <c r="V20" t="n">
-        <v>1971.274048960884</v>
+        <v>1979.715301186894</v>
       </c>
       <c r="W20" t="n">
-        <v>1618.50539369077</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X20" t="n">
-        <v>1618.50539369077</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y20" t="n">
-        <v>1228.366061714958</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V22" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1626.94664591678</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.94664591678</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>2000.41240417786</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>2000.41240417786</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X23" t="n">
-        <v>1626.94664591678</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y23" t="n">
-        <v>1626.94664591678</v>
+        <v>799.1015098861748</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6068,43 +6068,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1108.365917331524</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C26" t="n">
-        <v>739.4034003911122</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D26" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6256,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V26" t="n">
-        <v>2311.057514205145</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="W26" t="n">
-        <v>1958.288858935031</v>
+        <v>1485.892406545186</v>
       </c>
       <c r="X26" t="n">
-        <v>1584.823100673951</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="Y26" t="n">
-        <v>1494.965757395646</v>
+        <v>1157.367208492925</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036516</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K27" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M27" t="n">
         <v>1237.953133915166</v>
@@ -6323,7 +6323,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6338,19 +6338,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V27" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694736</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.9192350259435</v>
+        <v>527.5811021474123</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1422.14692331494</v>
+        <v>1816.955293888757</v>
       </c>
       <c r="C29" t="n">
-        <v>1422.14692331494</v>
+        <v>1447.992776948345</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.14692331494</v>
+        <v>1447.992776948345</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>1062.204524350101</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>651.2186195604932</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O29" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V29" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="W29" t="n">
-        <v>2070.717079250664</v>
+        <v>1816.955293888757</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.251320989584</v>
+        <v>1816.955293888757</v>
       </c>
       <c r="Y29" t="n">
-        <v>1422.14692331494</v>
+        <v>1816.955293888757</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482879</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359522</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355909</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355909</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,7 +6630,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N31" t="n">
         <v>529.6040388502502</v>
@@ -6639,34 +6639,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W31" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X31" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1584.314837422907</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.352320482495</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
-        <v>857.0866218757449</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>471.2983692775006</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>60.31246448789307</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>60.31246448789307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>60.31246448789307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748109</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487029</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y32" t="n">
-        <v>1970.914677487029</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6776,19 +6776,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>259.1560728187103</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C34" t="n">
-        <v>259.1560728187103</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D34" t="n">
-        <v>259.1560728187103</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245972</v>
+        <v>605.6340569364974</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245972</v>
+        <v>605.6340569364974</v>
       </c>
       <c r="V34" t="n">
-        <v>259.1560728187103</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W34" t="n">
-        <v>259.1560728187103</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X34" t="n">
-        <v>259.1560728187103</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y34" t="n">
-        <v>259.1560728187103</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1526.329725433337</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1157.367208492925</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D35" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2212.181128500978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>1881.118241157407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1528.349585887293</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1528.349585887293</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1528.349585887293</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>598.044640063212</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1679.795701438247</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C38" t="n">
-        <v>1310.833184497836</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D38" t="n">
-        <v>952.5674858910851</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E38" t="n">
-        <v>952.5674858910851</v>
+        <v>560.9872140232164</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>150.0013092336089</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W38" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X38" t="n">
-        <v>1838.661061815299</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y38" t="n">
-        <v>1838.661061815299</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7250,10 +7250,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7265,7 +7265,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7274,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7368,16 +7368,16 @@
         <v>438.9553738610024</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1219.679656148628</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C41" t="n">
-        <v>850.7171392082163</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082163</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="W41" t="n">
-        <v>2369.884586449642</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="X41" t="n">
-        <v>1996.418828188562</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y41" t="n">
-        <v>1606.27949621275</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7493,22 +7493,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7578,31 +7578,31 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>598.044640063212</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
         <v>343.3601518573251</v>
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1920.40991897829</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>1551.447402037878</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1193.181703431128</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>807.3934508328834</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7663,37 +7663,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X44" t="n">
-        <v>2697.149091018223</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>2307.009759042412</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750364</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U46" t="n">
-        <v>456.3840257941342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V46" t="n">
-        <v>456.3840257941342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W46" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747129</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747131</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951785</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,7 +10679,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10913,10 +10913,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O39" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22558,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481178</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>281.1793337443219</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>270.0480946872983</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22707,13 +22707,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>90.53095012411995</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>117.5062691663789</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>28.87052473404344</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>238.1912640556456</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1.620037437533028e-12</v>
       </c>
     </row>
     <row r="7">
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,7 +22998,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>81.14867215143187</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551424</v>
       </c>
     </row>
     <row r="8">
@@ -23026,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>226.8011102681248</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>308.4693617589787</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23181,19 +23181,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>78.24366890293328</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>100.3006713122185</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23226,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>296.1758321269873</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>253.0747683611708</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>118.3328055020462</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23475,10 +23475,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>163.302739301299</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>171.1985940132497</v>
+        <v>114.3255010248233</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>51.13608648480133</v>
+        <v>187.4282514519242</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>306.6230722805265</v>
+        <v>284.1026125217431</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>15.4236932637327</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>140.4535204541719</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>85.16529440306715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>105.6554263641232</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>195.9833618762624</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>44.49115460673113</v>
       </c>
       <c r="Y26" t="n">
-        <v>297.2791688105314</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.49548950841407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>26.49270221965222</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>146.4040614224248</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>113.8845849581557</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.80735538553375</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>141.9938968421882</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801578</v>
@@ -24894,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>155.6756200314737</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>145.6255284040079</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>88.69405058113804</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>103.7651274608466</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>380.7341798140644</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>62.54498204632085</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25368,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>225.4571348901989</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>318.686425881683</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4983735401875</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>46.15728123360816</v>
       </c>
       <c r="W41" t="n">
-        <v>79.72751176932934</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
@@ -25842,10 +25842,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401873</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>74.74425144011269</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>246.6703091676511</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>242.2894708718846</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>277.0610276546017</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107855</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107855</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107855</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="E2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="F2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="G2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="H2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="I2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="J2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="E2" t="n">
+      <c r="N2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="O2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="F2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="H2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="I2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145441</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26493,25 +26493,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="O5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="M5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49231.47806340948</v>
-      </c>
       <c r="P5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422429.3190784666</v>
+        <v>-416967.7467072289</v>
       </c>
       <c r="C6" t="n">
-        <v>167538.5601360778</v>
+        <v>173000.1325073151</v>
       </c>
       <c r="D6" t="n">
-        <v>167538.5601360778</v>
+        <v>173000.1325073146</v>
       </c>
       <c r="E6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.732507315</v>
       </c>
       <c r="F6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="G6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="H6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="I6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="J6" t="n">
-        <v>24742.94094348491</v>
+        <v>30204.51331472227</v>
       </c>
       <c r="K6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073153</v>
       </c>
       <c r="L6" t="n">
-        <v>201166.1601360777</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="M6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="N6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073149</v>
       </c>
       <c r="O6" t="n">
-        <v>201166.1601360777</v>
+        <v>206627.7325073153</v>
       </c>
       <c r="P6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.732507315</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
@@ -26776,10 +26776,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26807,31 +26807,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554462</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.3907153663379</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473548</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141103</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839647</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078605</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644437</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813574</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175836</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383793</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,43 +32943,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P26" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,25 +33119,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33189,34 +33189,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M29" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P29" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,40 +33253,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I30" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
@@ -33295,7 +33295,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,25 +33356,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34125,10 +34125,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34137,34 +34137,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34301,28 +34301,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770685</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873142</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,10 +36211,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36767,10 +36767,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P29" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K35" t="n">
         <v>297.223041434342</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,7 +37399,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735647</v>
@@ -37633,10 +37633,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O39" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
@@ -37785,22 +37785,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624588</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
